--- a/src/test/resources/excel testcases/TestCase and feature file excel (1).xlsx
+++ b/src/test/resources/excel testcases/TestCase and feature file excel (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beena\IdeaProjects\web1\src\test\resources\excel testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9317F934-D077-41F8-B69B-49BAD92142E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9379BB-5445-4833-97D6-CA2D7CB27867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="137">
   <si>
     <t xml:space="preserve">Browser </t>
   </si>
@@ -88,22 +88,13 @@
     <t>User should be able to Compare two products successfully</t>
   </si>
   <si>
-    <t>ReferProdutToFriend_001</t>
-  </si>
-  <si>
     <t>URL: https://demo.nopcommerce.com</t>
   </si>
   <si>
     <t>User should be able to refer a product to friend and "Your message has been sent" should display.</t>
   </si>
   <si>
-    <t>ReferProdutToFriend_002</t>
-  </si>
-  <si>
     <t>Non registered user should not be able to refer a product to a Friend and error message should display "Only registered customers can use email a friend feature"</t>
-  </si>
-  <si>
-    <t>Price_HightoLow-001</t>
   </si>
   <si>
     <t>To verify user should be able to sort Price Hight to Low on Electronics Category</t>
@@ -163,10 +154,6 @@
     <t>URL: https://demo.nopcommerce.com
 Friend Email : test123@gmail.com
 Your Email address: vbeena55@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compare product_001
-</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open browser   
@@ -317,6 +304,249 @@
   </si>
   <si>
     <t xml:space="preserve">       And User Click on category</t>
+  </si>
+  <si>
+    <t>To verify guest user should able to checkout successfully.</t>
+  </si>
+  <si>
+    <t>To verify Guest user should able to add comment  on nopcom website.</t>
+  </si>
+  <si>
+    <t>To verify that User Should  able to change the currency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open browser   
+2. Type the URL    
+3.Click on Books
+4Click on add to cart
+5.Click on shopping cart
+7.Click on terms and conditions
+8.Click on checkout
+9. Click on checkout as Guest
+10.Enter First Name
+11.Enter last name
+12.Enter Email
+13.Enter Country
+14.Enter city
+15. Enter Address 1 
+16.Enter postalcode
+17.Enter Phone Number
+18.Click on Continue
+19.Click on Continue
+20.select credit card
+21.Click on continue
+22.select credit card by visa
+23.Enter Cardholder Name
+24.Enter Card number
+25.  Click and select card expiration date
+26.Enter card cvc code
+27.Click on continue
+28.Click on confirm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://demo.nopcommerce.com
+First name :Beena
+Last name: Bhavsar
+Email :vbeena55@gmail.com
+Country:UK
+City:London
+Address 1: 12 Hillcroft Crescent
+Postalcode:ha4 9hn
+Phone number:078456745
+</t>
+  </si>
+  <si>
+    <t>User should checkout successfully and see the message your order has been successfully processed.</t>
+  </si>
+  <si>
+    <t>User is able to see message "your message has been sent"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open Browser
+2. Type the URL
+3.Click on Details
+4 Enter the Title
+5.Enter the comment
+6.Click on new comment
+</t>
+  </si>
+  <si>
+    <t>URL: https://demo.nopcommerce.com
+Mrs
+hello</t>
+  </si>
+  <si>
+    <t>User should see the message "news comment is successfully added" once added the  new comment</t>
+  </si>
+  <si>
+    <t>1.Open Browser
+2.Type the URL
+3.Click and select Euro
+4.Click and select USDollar</t>
+  </si>
+  <si>
+    <t>user should see the t currency when change from $ to  t and $ currency when change from t to $ on a feature products.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare product_002
+</t>
+  </si>
+  <si>
+    <t>ReferProdutToFriend_003</t>
+  </si>
+  <si>
+    <t>ReferProdutToFriend_004</t>
+  </si>
+  <si>
+    <t>Price_HightoLow-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chk_006
+</t>
+  </si>
+  <si>
+    <t>AddNewComment_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChangeCurrency_008
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that user should see the Add to cart Button present on All feature Products On Homepage.
+</t>
+  </si>
+  <si>
+    <t>Addtocart_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open Browser
+2.Type the URL
+</t>
+  </si>
+  <si>
+    <t>user should see Add to cart button on all feature products on a homepage.</t>
+  </si>
+  <si>
+    <t>user can see add to cart button only on one feature product on a homepage.</t>
+  </si>
+  <si>
+    <t>6    Scenario: Guest User Should able to  checkout successfully.</t>
+  </si>
+  <si>
+    <t>when User is on homepage and  navigate to different categories. And clk on Books</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given  Guest user Should able to checkout successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And  Clk on add to cart button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And  Clk on shopping cart button </t>
+  </si>
+  <si>
+    <t>And tick on terms and conditions and Clk on Checkout.</t>
+  </si>
+  <si>
+    <t>And Enter firstName</t>
+  </si>
+  <si>
+    <t>AND EnterLastName</t>
+  </si>
+  <si>
+    <t>And Clk on checkout as Guest and clk on continue</t>
+  </si>
+  <si>
+    <t>And Enter email address</t>
+  </si>
+  <si>
+    <t>And clk and select country</t>
+  </si>
+  <si>
+    <t>And Enter city name</t>
+  </si>
+  <si>
+    <t>And Enter address</t>
+  </si>
+  <si>
+    <t>And Enter postcode</t>
+  </si>
+  <si>
+    <t>And Enter phone number and Clk on continue</t>
+  </si>
+  <si>
+    <t>And Ck on creditcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Clk on continue </t>
+  </si>
+  <si>
+    <t>And clk and select master card</t>
+  </si>
+  <si>
+    <t>And Enter cardholder name and enter card number</t>
+  </si>
+  <si>
+    <t>And clk and select expiry date</t>
+  </si>
+  <si>
+    <t>And enter card cvc code and clk on continue</t>
+  </si>
+  <si>
+    <t>Then Clk on Confirm</t>
+  </si>
+  <si>
+    <t>7   Scenario:Verify that Guest User Should able to add comment on nopcom website.</t>
+  </si>
+  <si>
+    <t>when User is on homepage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when User is on homepage </t>
+  </si>
+  <si>
+    <t>And User should  scroll down and clk on Details</t>
+  </si>
+  <si>
+    <t>And User enter the title</t>
+  </si>
+  <si>
+    <t>And User enter comment</t>
+  </si>
+  <si>
+    <t>And User clk on new comment</t>
+  </si>
+  <si>
+    <t>Then user get a message news comment is added successfully.</t>
+  </si>
+  <si>
+    <t>8  Scenario: User should able to change the currency</t>
+  </si>
+  <si>
+    <t>when user is on homepage.</t>
+  </si>
+  <si>
+    <t>And  scroll down   currency  Euror to USDollar</t>
+  </si>
+  <si>
+    <t>And scroll down   currency  US Dollar to Euro</t>
+  </si>
+  <si>
+    <t>Then user can see change  in the currency</t>
+  </si>
+  <si>
+    <t>9 Scenario: Verify User should able to add cart button on all featured products</t>
+  </si>
+  <si>
+    <t>And scroll down to featued product</t>
+  </si>
+  <si>
+    <t>Then User can see add to cart button present on  one product only.</t>
   </si>
 </sst>
 </file>
@@ -676,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -806,6 +1036,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -852,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -872,9 +1126,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -885,6 +1136,28 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1244,21 +1517,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="52" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1296,17 +1569,17 @@
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1325,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -1337,163 +1610,247 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
+      <c r="E10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>25</v>
+      <c r="A11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>42</v>
+      <c r="D11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+    <row r="12" spans="1:9" ht="338.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+    <row r="13" spans="1:9" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
+      <c r="D13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>86</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
+    <row r="15" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1502,7 +1859,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1511,7 +1868,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -1520,7 +1877,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -1529,23 +1886,14 @@
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1558,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C8F667-A200-4F66-BD4E-0E6C1C2BCEA7}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,182 +1919,382 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
